--- a/biology/Microbiologie/Zoothamniidae/Zoothamniidae.xlsx
+++ b/biology/Microbiologie/Zoothamniidae/Zoothamniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Zoothamniidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Zoothamnium, dérivé du grec ancien ζωον / zoon, « être vivant (le plus souvent) animal », et θαμνίον -thamnion, diminutif de θάμνος -thamnos, « buisson, arbrisseau », littéralement « animal arbrisseau », en référence à la forme arborescente des colonies que constituent ces ciliés.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Zoothamniidae ont une taille petite (&lt; 80 µm) à grande (&gt; 200 µm). Leur forme varie entre cloche et cylindrique allongée. Leur zooïde contient un myonème contractile (= spasmonème) qui se comprime lors de la contraction sous forme de plis en zigzag dans un plan. Les zooïdes se présentent sous des formes coloniales, partageant un spasmonème continu qui s'étend dans toute la colonie, de sorte que la colonie entière est contractile. Certaines espèces coloniales sont dimorphes, formant des macrozoïdes, spécialisées dans la production de télotroques (forme larvaire migratrice nageant librement)) ou de formes conjugués. Leur région buccale possède, notamment, une lèvre péristomiale rétractable et un disque épistomial légèrement protubérant. Leur macronoyau est en forme de bande. Micronoyau et vacuole contractile sont présents. Le cytoprocte n'a pas été observé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Zoothamniidae ont une taille petite (&lt; 80 µm) à grande (&gt; 200 µm). Leur forme varie entre cloche et cylindrique allongée. Leur zooïde contient un myonème contractile (= spasmonème) qui se comprime lors de la contraction sous forme de plis en zigzag dans un plan. Les zooïdes se présentent sous des formes coloniales, partageant un spasmonème continu qui s'étend dans toute la colonie, de sorte que la colonie entière est contractile. Certaines espèces coloniales sont dimorphes, formant des macrozoïdes, spécialisées dans la production de télotroques (forme larvaire migratrice nageant librement)) ou de formes conjugués. Leur région buccale possède, notamment, une lèvre péristomiale rétractable et un disque épistomial légèrement protubérant. Leur macronoyau est en forme de bande. Micronoyau et vacuole contractile sont présents. Le cytoprocte n'a pas été observé.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Zoothamniidae  vivent aussi bien en milieu marin qu'en eau douce, attachés à des objets inanimés, des plantes, des rotifères, des crustacés et même des tortues[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Zoothamniidae  vivent aussi bien en milieu marin qu'en eau douce, attachés à des objets inanimés, des plantes, des rotifères, des crustacés et même des tortues.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (25 février 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (25 février 2024) :
 Craspedomyoschiston Precht, 1935
 Mesothamnium Jankowski, 1985
 Myoschiston Jankowski, 1985
@@ -615,7 +635,7 @@
 Genres synonymes : Autochloe, Dendrella, Zoocladium.
 Espèce type : Zoothamnium ovifera (Modeer, 1790) Bory, 1824
 Zoothamnopsis Song, 1997
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Craspedomyoschiston Precht, 1935
 Haplocaulus Warren, 1988
 Mesothamnium Jankowski, 1985
@@ -651,9 +671,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Zoothamniidae Sommer (d), 1951[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Zoothamniidae Sommer (d), 1951.
 </t>
         </is>
       </c>
